--- a/docs/LTA1_C/LTA1_C_03.09.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731789843.367302</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731789843.9006746</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731789843.367302.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731789843.9006746.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>240.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>243.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731789844.1276476</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731789844.1276476.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731789844.1276476.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>245.27</v>
       </c>
-      <c r="J4" t="n">
-        <v>245.27</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>246.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.8799999999999955</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731789848.2994728</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731789848.6745677</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789848.2994728.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789848.6745677.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>240.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>243.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731789848.8550584</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731789851.7625425</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789848.8550584.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789851.7625425.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>245.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>241.22</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>4.050000000000011</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731789851.7775028</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731789852.2614899</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789851.7775028.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789852.2614899.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>241.22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>244.27</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>3.050000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -791,95 +837,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731789852.4833512</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731789852.4833512.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731789852.4833512.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>245.68</v>
       </c>
-      <c r="J8" t="n">
-        <v>245.68</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>247.04</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.359999999999985</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731789858.166833</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731789866.7907372</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789858.166833.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789866.7907372.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>124.57</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>123.95</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6199999999999903</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -887,95 +945,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731789866.919216</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731789866.919216.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731789866.919216.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>123.02</v>
       </c>
-      <c r="J10" t="n">
-        <v>123.02</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>123.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3800000000000097</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731789868.0475972</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731789872.44726</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789868.0475972.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789872.44726.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6157.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6176</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-18.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -983,95 +1053,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731789873.3364813</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731789873.3364813.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731789873.3364813.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>463.6</v>
       </c>
-      <c r="J12" t="n">
-        <v>463.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>465.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-2.299999999999955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731789876.9090676</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731789877.4994247</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731789876.9090676.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731789877.4994247.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>190.13</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>193.41</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>3.280000000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>1.73</v>
       </c>
     </row>
@@ -1079,51 +1161,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731789878.023151</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731789881.2187977</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731789878.023151.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731789881.2187977.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>194.66</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>192.44</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2.219999999999999</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -1131,51 +1219,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731789882.894527</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731789883.7386153</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789882.894527.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789883.7386153.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>967.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>959.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>7.600000000000023</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -1183,51 +1277,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731789884.220133</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731789886.304229</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789884.220133.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789886.304229.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>970</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>963</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>7</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -1235,51 +1335,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731789887.3806517</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731789888.8047051</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731789887.3806517.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731789888.8047051.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>11.975</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>11.965</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1287,95 +1393,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731789889.0119624</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731789889.0119624.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731789889.0119624.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>11.992</v>
       </c>
-      <c r="J18" t="n">
-        <v>11.992</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>12.071</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.07899999999999885</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731789892.5700533</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731789897.8181624</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789892.5700533.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789897.8181624.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>103.9</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>105.48</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.579999999999998</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-1.52</v>
       </c>
     </row>
@@ -1383,51 +1501,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731789898.506963</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731789903.0012777</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789898.506963.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789903.0012777.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>128.26</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>128.16</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1435,95 +1559,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731789904.2108316</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731789904.2108316.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731789904.2108316.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.26</v>
       </c>
-      <c r="J21" t="n">
-        <v>127.26</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>127.76</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731789904.7926877</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731789908.7132947</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789904.7926877.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789908.7132947.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>41.25</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>41.02</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1531,95 +1667,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731789908.895226</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731789908.895226.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731789908.895226.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>40.67</v>
       </c>
-      <c r="J23" t="n">
-        <v>40.67</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>40.76</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.08999999999999631</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731789910.2618005</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731789914.2184594</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789910.2618005.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789914.2184594.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1180</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1176.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1627,95 +1775,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731789914.6243734</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731789914.6243734.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731789914.6243734.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1160.6</v>
       </c>
-      <c r="J25" t="n">
-        <v>1160.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1165.4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.800000000000182</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731789914.9255672</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731789920.0730035</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789914.9255672.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789920.0730035.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>47.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>47.92</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.7199999999999989</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-1.53</v>
       </c>
     </row>
@@ -1723,51 +1883,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731789920.8099997</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731789926.2021449</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731789920.8099997.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731789926.2021449.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>87</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1775,51 +1941,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731789927.6074152</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731789930.5929954</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789927.6074152.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789930.5929954.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>47.34</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>47.07</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.2700000000000031</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -1827,51 +1999,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731789931.6751072</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731789935.2831762</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789931.6751072.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789935.2831762.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>139.56</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>138.04</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.52000000000001</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -1879,95 +2057,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731789937.0284944</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731789937.0284944.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731789937.0284944.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>0.2804</v>
       </c>
-      <c r="J30" t="n">
-        <v>0.2804</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.2766</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.00379999999999997</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731789941.5009832</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731789942.0103118</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731789941.5009832.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731789942.0103118.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>15.032</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>15.303</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2710000000000008</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -1975,51 +2165,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731789942.7135813</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731789943.0386858</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731789942.7135813.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731789943.0386858.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>15.468</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>15.238</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2300000000000004</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>1.49</v>
       </c>
     </row>
@@ -2027,95 +2223,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731789946.7342074</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731789946.7342074.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731789946.7342074.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>15.075</v>
       </c>
-      <c r="J33" t="n">
-        <v>15.075</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15.113</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.03800000000000026</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731789947.679152</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731789950.9176083</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731789947.679152.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731789950.9176083.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>646.95</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>647.85</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2123,51 +2331,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731789951.9608583</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731789955.2108176</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731789951.9608583.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731789955.2108176.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>114.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>113.31</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.489999999999995</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -2175,44 +2389,50 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731789955.921942</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731789955.921942.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731789955.921942.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>112.81</v>
       </c>
-      <c r="J36" t="n">
-        <v>112.81</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>112.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.210000000000008</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -2273,19 +2493,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.10000000000002</v>
+        <v>8.740000000000038</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.525000000000006</v>
+        <v>2.185000000000009</v>
       </c>
       <c r="E2" t="n">
-        <v>4.16</v>
+        <v>3.61</v>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -2295,19 +2515,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5010000000000012</v>
+        <v>0.5390000000000015</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1670000000000004</v>
+        <v>0.1796666666666672</v>
       </c>
       <c r="E3" t="n">
-        <v>3.29</v>
+        <v>3.54</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="4">
@@ -2317,19 +2537,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2299999999999969</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1149999999999984</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -2339,19 +2559,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2.120000000000005</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>1.060000000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="F5" t="n">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -2383,19 +2603,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09999999999999432</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04999999999999716</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
@@ -2427,19 +2647,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.489999999999995</v>
+        <v>1.279999999999987</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7449999999999974</v>
+        <v>0.6399999999999935</v>
       </c>
       <c r="E9" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2449,19 +2669,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6199999999999903</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3099999999999952</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -2471,19 +2691,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009999999999999787</v>
+        <v>-0.06899999999999906</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004999999999999893</v>
+        <v>-0.03449999999999953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08</v>
+        <v>-0.5800000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="12">
@@ -2493,19 +2713,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.799999999999955</v>
+        <v>8.600000000000136</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1.899999999999977</v>
+        <v>4.300000000000068</v>
       </c>
       <c r="E12" t="n">
-        <v>0.32</v>
+        <v>0.73</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
@@ -2537,19 +2757,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.00379999999999997</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.00379999999999997</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="15">
@@ -2603,19 +2823,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2.299999999999955</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2.299999999999955</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18">
